--- a/data/download_mevzuat/mevzuat.xlsx
+++ b/data/download_mevzuat/mevzuat.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FimPkb\Desktop\M-CC\Code\ihale_asistani_rev1\data\download_mevzuat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FimPkb\Desktop\M-CC\Code\ihale_asistani_v1.0\data\download_mevzuat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F4FDB5-EF2C-471E-AAC8-CB27DE34E932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30866B65-C060-4F1C-B32B-83983029063D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{03755BBF-1E53-6143-AED2-7BEECC59B887}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="67">
   <si>
     <t>Link</t>
   </si>
@@ -54,12 +54,6 @@
     <t>teblig</t>
   </si>
   <si>
-    <t>Yapım İşleri İhaleleri Uygulama Yönetmeliği ve Ekleri</t>
-  </si>
-  <si>
-    <t>Kamu İhale Genel Tebliği ve Ekleri</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -94,6 +88,153 @@
   </si>
   <si>
     <t>https://www.mevzuat.gov.tr/MevzuatMetin/yonetmelik/9.5.13354.pdf</t>
+  </si>
+  <si>
+    <t>https://www.mevzuat.gov.tr/MevzuatMetin/1.5.5510.pdf</t>
+  </si>
+  <si>
+    <t>Sosyal Sigortalar ve Genel Sağlık Sigortası Kanunu</t>
+  </si>
+  <si>
+    <t>Vergi Usul Kanunu</t>
+  </si>
+  <si>
+    <t>https://www.mevzuat.gov.tr/MevzuatMetin/1.4.213.pdf</t>
+  </si>
+  <si>
+    <t>Katma Değer Vergisi Kanunu</t>
+  </si>
+  <si>
+    <t>https://www.mevzuat.gov.tr/MevzuatMetin/1.5.3065.pdf</t>
+  </si>
+  <si>
+    <t>Elektrik Piyasası Kanunu</t>
+  </si>
+  <si>
+    <t>https://www.mevzuat.gov.tr/MevzuatMetin/1.5.6446.pdf</t>
+  </si>
+  <si>
+    <t>İş Sağlığı ve Güvenliği Kanunu</t>
+  </si>
+  <si>
+    <t>https://www.mevzuat.gov.tr/MevzuatMetin/1.5.6331.pdf</t>
+  </si>
+  <si>
+    <t>Posta Hizmetleri Kanunu</t>
+  </si>
+  <si>
+    <t>https://www.mevzuat.gov.tr/MevzuatMetin/1.5.6475.pdf</t>
+  </si>
+  <si>
+    <t>İş Kanunu</t>
+  </si>
+  <si>
+    <t>https://www.mevzuat.gov.tr/MevzuatMetin/1.5.4857.pdf</t>
+  </si>
+  <si>
+    <t>Gelir Vergisi Kanunu</t>
+  </si>
+  <si>
+    <t>https://www.mevzuat.gov.tr/MevzuatMetin/1.4.193.pdf</t>
+  </si>
+  <si>
+    <t>Yapım İşlerinde Uygulanacak Fiyat Farkına İlişkin Esaslar</t>
+  </si>
+  <si>
+    <t>Mal Alımlarında Uygulanacak Fiyat Farkına İlişkin Esaslar</t>
+  </si>
+  <si>
+    <t>Hizmet Alımlarında Uygulanacak Fiyat Farkına İlişkin Esaslar</t>
+  </si>
+  <si>
+    <t>https://www.ihale.gov.tr/DokumanDownload.aspx?DokumanID=957</t>
+  </si>
+  <si>
+    <t>https://www.ihale.gov.tr/DokumanDownload.aspx?DokumanID=1357</t>
+  </si>
+  <si>
+    <t>https://www.ihale.gov.tr/DokumanDownload.aspx?DokumanID=1296</t>
+  </si>
+  <si>
+    <t>Yapım İşleri İhaleleri Uygulama Yönetmeliği</t>
+  </si>
+  <si>
+    <t>https://www.mevzuat.gov.tr/mevzuatmetin/yonetmelik/7.5.12916-Ek.zip</t>
+  </si>
+  <si>
+    <t>Yapım İşleri Genel Şartname</t>
+  </si>
+  <si>
+    <t>Hizmet Alımı İhaleleri Uygulama Yönetmeliği</t>
+  </si>
+  <si>
+    <t>https://www.mevzuat.gov.tr/MevzuatMetin/yonetmelik/7.5.12918.pdf</t>
+  </si>
+  <si>
+    <t>Hizmet Genel Şartname</t>
+  </si>
+  <si>
+    <t>sartname</t>
+  </si>
+  <si>
+    <t>https://www.mevzuat.gov.tr/mevzuatmetin/yonetmelik/7.5.12918-Ek.zip</t>
+  </si>
+  <si>
+    <t>Mal Alımı İhaleleri Uygulama Yönetmeliği</t>
+  </si>
+  <si>
+    <t>https://www.mevzuat.gov.tr/File/GeneratePdf?mevzuatNo=12917&amp;mevzuatTur=KurumVeKurulusYonetmeligi&amp;mevzuatTertip=5</t>
+  </si>
+  <si>
+    <t>Yapım İşleri Muayene ve Kabul Yönetmeliği</t>
+  </si>
+  <si>
+    <t>https://www.mevzuat.gov.tr/File/GeneratePdf?mevzuatNo=12920&amp;mevzuatTur=KurumVeKurulusYonetmeligi&amp;mevzuatTertip=5</t>
+  </si>
+  <si>
+    <t>Mal Alımları Denetim Muayene ve Kabul İşlemlerine Dair Yönetmelik</t>
+  </si>
+  <si>
+    <t>https://www.mevzuat.gov.tr/MevzuatMetin/yonetmelik/7.5.4713.pdf</t>
+  </si>
+  <si>
+    <t>Hizmet Alımları Muayene ve Kabul Yönetmeliği</t>
+  </si>
+  <si>
+    <t>https://www.mevzuat.gov.tr/File/GeneratePdf?mevzuatNo=4714&amp;mevzuatTur=KurumVeKurulusYonetmeligi&amp;mevzuatTertip=5</t>
+  </si>
+  <si>
+    <t>Danışmanlık Hizmet Alımları Muayene ve Kabul Yönetmeliği</t>
+  </si>
+  <si>
+    <t>https://www.mevzuat.gov.tr/File/GeneratePdf?mevzuatNo=4712&amp;mevzuatTur=KurumVeKurulusYonetmeligi&amp;mevzuatTertip=5</t>
+  </si>
+  <si>
+    <t>İhalelere Yönelik Başvurular Hakkında Yönetmelik</t>
+  </si>
+  <si>
+    <t>https://www.mevzuat.gov.tr/MevzuatMetin/yonetmelik/7.5.12766.pdf</t>
+  </si>
+  <si>
+    <t>Kamu İhale Genel Tebliği</t>
+  </si>
+  <si>
+    <t>Doğrudan Temin Yöntemiyle Yapılacak Alımlara İlişkin Tebliğ</t>
+  </si>
+  <si>
+    <t>https://www.mevzuat.gov.tr/MevzuatMetin/yonetmelik/9.5.40666.pdf</t>
+  </si>
+  <si>
+    <t>Yapım İşlerinde Benzer İş Grupları Tebliği</t>
+  </si>
+  <si>
+    <t>https://www.ihale.gov.tr/DokumanDownload.aspx?DokumanID=1025</t>
+  </si>
+  <si>
+    <t>İhalelere Yönelik Başvurular Hakkında Tebliğ</t>
+  </si>
+  <si>
+    <t>https://www.mevzuat.gov.tr/MevzuatMetin/yonetmelik/9.5.12821.pdf</t>
   </si>
 </sst>
 </file>
@@ -468,15 +609,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05C736FF-64A5-C447-9491-16ED9242B1BE}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54.5" customWidth="1"/>
     <col min="2" max="2" width="17.375" customWidth="1"/>
     <col min="3" max="3" width="10.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="59.375" bestFit="1" customWidth="1"/>
@@ -487,7 +628,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -497,98 +638,428 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="1">
-        <v>4735</v>
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>4734</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3">
-        <v>5738</v>
+      <c r="B3" s="1">
+        <v>4735</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>12916</v>
+        <v>488</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B5">
-        <v>13354</v>
+        <v>5510</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B6">
-        <v>4734</v>
+        <v>213</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B7">
-        <v>488</v>
+        <v>3065</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8">
+        <v>6446</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>6331</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10">
+        <v>6475</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11">
+        <v>4857</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12">
+        <v>193</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13">
+        <v>12916</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15">
+        <v>12918</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17">
+        <v>12917</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18">
+        <v>12920</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19">
+        <v>4713</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20">
+        <v>4714</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21">
+        <v>4712</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22">
+        <v>12766</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23">
+        <v>13354</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24">
+        <v>40666</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25">
+        <v>15043</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26">
+        <v>12821</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27">
+        <v>5738</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{5CD4843A-72FF-4643-8387-864C2C3BF890}"/>
-    <hyperlink ref="D5" r:id="rId2" xr:uid="{05B4E1AC-8C7F-4C43-9E82-33A1E4FCD63B}"/>
-    <hyperlink ref="D3" r:id="rId3" xr:uid="{750E4D3F-7A8C-4143-8B15-253C94AF32CB}"/>
-    <hyperlink ref="D6" r:id="rId4" xr:uid="{5A39E9FA-7E07-1745-91EB-F7BF0BC68EE3}"/>
-    <hyperlink ref="D7" r:id="rId5" xr:uid="{D86404B0-BF9F-2844-83F8-6C461E888970}"/>
-    <hyperlink ref="D4" r:id="rId6" xr:uid="{6E23252A-4ED1-5546-8AFA-5F9FEC24F43C}"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{5CD4843A-72FF-4643-8387-864C2C3BF890}"/>
+    <hyperlink ref="D23" r:id="rId2" xr:uid="{05B4E1AC-8C7F-4C43-9E82-33A1E4FCD63B}"/>
+    <hyperlink ref="D27" r:id="rId3" xr:uid="{750E4D3F-7A8C-4143-8B15-253C94AF32CB}"/>
+    <hyperlink ref="D2" r:id="rId4" xr:uid="{5A39E9FA-7E07-1745-91EB-F7BF0BC68EE3}"/>
+    <hyperlink ref="D4" r:id="rId5" xr:uid="{D86404B0-BF9F-2844-83F8-6C461E888970}"/>
+    <hyperlink ref="D13" r:id="rId6" xr:uid="{6E23252A-4ED1-5546-8AFA-5F9FEC24F43C}"/>
+    <hyperlink ref="D5" r:id="rId7" xr:uid="{32A949F5-72EF-40F4-8605-095CC9E3E3CF}"/>
+    <hyperlink ref="D6" r:id="rId8" xr:uid="{414F20FB-10D0-417D-81C8-43F8FFCC8054}"/>
+    <hyperlink ref="D7" r:id="rId9" xr:uid="{B0014731-D623-458B-A98A-A6E415AF3600}"/>
+    <hyperlink ref="D8" r:id="rId10" xr:uid="{D6A91B5E-78FE-431D-ACA3-2B622F047F2F}"/>
+    <hyperlink ref="D9" r:id="rId11" xr:uid="{5EF5ABB7-2AD2-4F4A-8389-9B83F8F7D7AC}"/>
+    <hyperlink ref="D10" r:id="rId12" xr:uid="{77245157-D958-4555-B684-19A2B60ADCBF}"/>
+    <hyperlink ref="D11" r:id="rId13" xr:uid="{2CBFB54E-C97E-4CE7-80BF-E7B31EE5CD73}"/>
+    <hyperlink ref="D12" r:id="rId14" xr:uid="{06B54275-B9D2-4B50-A3A0-2CCC9FC57EFE}"/>
+    <hyperlink ref="D28" r:id="rId15" xr:uid="{BB274EF4-5288-4765-9C57-5D9F8717D852}"/>
+    <hyperlink ref="D29" r:id="rId16" xr:uid="{D1AC2898-B754-4E3A-8071-C20B5943257A}"/>
+    <hyperlink ref="D30" r:id="rId17" xr:uid="{FFE2F628-B3B5-4D7D-A777-7385F255EB5D}"/>
+    <hyperlink ref="D14" r:id="rId18" xr:uid="{6E77FB6A-AD9A-41B3-A3BB-79417D1C5EEF}"/>
+    <hyperlink ref="D15" r:id="rId19" xr:uid="{3560119D-9433-41A1-B6C2-331B62F747AB}"/>
+    <hyperlink ref="D16" r:id="rId20" xr:uid="{16216C37-F3EA-4AFF-AA70-CC57A694B8C3}"/>
+    <hyperlink ref="D17" r:id="rId21" xr:uid="{A9A52EA2-9BCB-4BCA-B154-6A4079AEE1C6}"/>
+    <hyperlink ref="D18" r:id="rId22" xr:uid="{861EBFD0-AE79-4549-AEF4-394420B80478}"/>
+    <hyperlink ref="D19" r:id="rId23" xr:uid="{BEF280F2-91A2-48ED-8BB5-1A8317EAC5C6}"/>
+    <hyperlink ref="D20" r:id="rId24" xr:uid="{BBCDA9CF-0F95-4BA5-B5EC-7E2378509152}"/>
+    <hyperlink ref="D21" r:id="rId25" xr:uid="{0D32D929-FF3A-4212-A33E-320D77EC5F89}"/>
+    <hyperlink ref="D22" r:id="rId26" xr:uid="{DC97557C-2DB7-4339-9518-C818CF01DA7A}"/>
+    <hyperlink ref="D24" r:id="rId27" xr:uid="{AD47CC6E-238D-49FB-86E1-B3301F154AC1}"/>
+    <hyperlink ref="D25" r:id="rId28" xr:uid="{BEC743EB-901B-48BA-8DF9-66B6DA85AA1C}"/>
+    <hyperlink ref="D26" r:id="rId29" xr:uid="{1E59DA48-716A-43C3-B50B-9AE6998AC310}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/download_mevzuat/mevzuat.xlsx
+++ b/data/download_mevzuat/mevzuat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FimPkb\Desktop\M-CC\Code\ihale_asistani_v1.0\data\download_mevzuat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30866B65-C060-4F1C-B32B-83983029063D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826EE120-E421-4F59-92C2-09CCEA9888C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{03755BBF-1E53-6143-AED2-7BEECC59B887}"/>
+    <workbookView xWindow="4860" yWindow="2505" windowWidth="21600" windowHeight="11295" xr2:uid="{03755BBF-1E53-6143-AED2-7BEECC59B887}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="68">
   <si>
     <t>Link</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Korunması Gerekli Kültür Varlıklarının Onarımları ve Restorasyonları ile Çevre Düzenlemesine İlişkin Mal ve Hizmet Alımlarına Dair Usul ve Esaslar</t>
   </si>
   <si>
-    <t>https://www2.ihale.gov.tr/mevzuat/istisnalar/istisna_31868.pdf</t>
-  </si>
-  <si>
     <t>Kamu İhale Sözleşmeleri Kanunu</t>
   </si>
   <si>
@@ -235,6 +232,12 @@
   </si>
   <si>
     <t>https://www.mevzuat.gov.tr/MevzuatMetin/yonetmelik/9.5.12821.pdf</t>
+  </si>
+  <si>
+    <t>https://www.mevzuat.gov.tr/MevzuatMetin/21.5.5738.pdf</t>
+  </si>
+  <si>
+    <t>istisna</t>
   </si>
 </sst>
 </file>
@@ -609,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05C736FF-64A5-C447-9491-16ED9242B1BE}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -648,12 +651,12 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1">
         <v>4735</v>
@@ -662,12 +665,12 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>488</v>
@@ -676,12 +679,12 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>5510</v>
@@ -690,12 +693,12 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>213</v>
@@ -704,12 +707,12 @@
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7">
         <v>3065</v>
@@ -718,12 +721,12 @@
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8">
         <v>6446</v>
@@ -732,12 +735,12 @@
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9">
         <v>6331</v>
@@ -746,12 +749,12 @@
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10">
         <v>6475</v>
@@ -760,12 +763,12 @@
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11">
         <v>4857</v>
@@ -774,12 +777,12 @@
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12">
         <v>193</v>
@@ -788,12 +791,12 @@
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13">
         <v>12916</v>
@@ -802,23 +805,23 @@
         <v>4</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15">
         <v>12918</v>
@@ -827,23 +830,23 @@
         <v>4</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
         <v>45</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B17">
         <v>12917</v>
@@ -852,12 +855,12 @@
         <v>4</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B18">
         <v>12920</v>
@@ -866,12 +869,12 @@
         <v>4</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19">
         <v>4713</v>
@@ -880,12 +883,12 @@
         <v>4</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B20">
         <v>4714</v>
@@ -894,12 +897,12 @@
         <v>4</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21">
         <v>4712</v>
@@ -908,12 +911,12 @@
         <v>4</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B22">
         <v>12766</v>
@@ -922,12 +925,12 @@
         <v>4</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B23">
         <v>13354</v>
@@ -936,12 +939,12 @@
         <v>5</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B24">
         <v>40666</v>
@@ -950,12 +953,12 @@
         <v>5</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B25">
         <v>15043</v>
@@ -964,12 +967,12 @@
         <v>5</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B26">
         <v>12821</v>
@@ -978,7 +981,7 @@
         <v>5</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -989,43 +992,48 @@
         <v>5738</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
         <v>8</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C30" t="s">
         <v>8</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
